--- a/참고자료/주소록3.xlsx
+++ b/참고자료/주소록3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보 (2)" sheetId="1" r:id="rId1"/>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -4331,7 +4331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -5800,7 +5800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
